--- a/data/trans_orig/P41E_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27799</v>
+        <v>27279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48193</v>
+        <v>48777</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1644646268109793</v>
+        <v>0.1644646268109794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.122383037592489</v>
+        <v>0.1200949140138591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.212165376243242</v>
+        <v>0.2147402526954798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -762,19 +762,19 @@
         <v>44379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35035</v>
+        <v>35618</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54613</v>
+        <v>54132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1816896386432401</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1434364644701529</v>
+        <v>0.1458207161784659</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2235874931291387</v>
+        <v>0.2216197634635338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -783,19 +783,19 @@
         <v>81736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68770</v>
+        <v>68111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96342</v>
+        <v>98451</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1733897346510944</v>
+        <v>0.1733897346510943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1458840911856294</v>
+        <v>0.1444854601517381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2043747871502087</v>
+        <v>0.2088470077374221</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>10565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5823</v>
+        <v>6182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17929</v>
+        <v>18066</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04651283040472778</v>
+        <v>0.04651283040472777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02563645248475118</v>
+        <v>0.02721659592124967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07893358987190059</v>
+        <v>0.07953546729241463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -833,19 +833,19 @@
         <v>12073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7550</v>
+        <v>7199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18278</v>
+        <v>18263</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04942666520693076</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0309107980989037</v>
+        <v>0.02947459637297366</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07482937711289647</v>
+        <v>0.07476812542078978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -854,19 +854,19 @@
         <v>22638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15896</v>
+        <v>15068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31185</v>
+        <v>31752</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0480226284873761</v>
+        <v>0.04802262848737609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03372157289152378</v>
+        <v>0.03196489190598897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06615346389647934</v>
+        <v>0.0673575707133036</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>23149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14132</v>
+        <v>14879</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32990</v>
+        <v>32602</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1019106975606988</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06221564304741087</v>
+        <v>0.06550451339108715</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1452356171975296</v>
+        <v>0.1435307065474197</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -904,19 +904,19 @@
         <v>31655</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23825</v>
+        <v>23984</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41762</v>
+        <v>40868</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.129597556804915</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09754311749207363</v>
+        <v>0.09819094251247446</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1709762983092488</v>
+        <v>0.1673146524736027</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -925,19 +925,19 @@
         <v>54803</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42609</v>
+        <v>42340</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67846</v>
+        <v>68367</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1162565921769165</v>
+        <v>0.1162565921769164</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09038726531139618</v>
+        <v>0.08981755007304768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1439237435475401</v>
+        <v>0.1450284055366808</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>67151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53886</v>
+        <v>54103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82224</v>
+        <v>81432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2956280090592437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.237229348404538</v>
+        <v>0.2381866129085713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3619886779723985</v>
+        <v>0.3585026418995075</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -975,19 +975,19 @@
         <v>61252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50803</v>
+        <v>49923</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75372</v>
+        <v>73329</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2507683436818958</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2079918795979403</v>
+        <v>0.2043862934869215</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3085782344648125</v>
+        <v>0.3002140417249096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -996,19 +996,19 @@
         <v>128402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111160</v>
+        <v>109586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147746</v>
+        <v>147325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2723840568888053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2358076548504034</v>
+        <v>0.2324684499615098</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.313419083270457</v>
+        <v>0.3125254882435468</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>88924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74971</v>
+        <v>74586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>106010</v>
+        <v>105248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3914838361643503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3300554031586761</v>
+        <v>0.3283606432408548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4667057932844841</v>
+        <v>0.4633495143751082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -1046,19 +1046,19 @@
         <v>94898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82477</v>
+        <v>80844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108910</v>
+        <v>107678</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3885177956630183</v>
+        <v>0.3885177956630184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3376666132183657</v>
+        <v>0.3309810069715885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4458856487112275</v>
+        <v>0.4408425221253687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>189</v>
@@ -1067,19 +1067,19 @@
         <v>183821</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>163287</v>
+        <v>161892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>205806</v>
+        <v>205229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3899469877958077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3463860135865393</v>
+        <v>0.3434274875940799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4365841580947537</v>
+        <v>0.4353592412515488</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>42940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32990</v>
+        <v>33085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55182</v>
+        <v>55768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1030357983684983</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07916006140289944</v>
+        <v>0.079388882446493</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1324111191159259</v>
+        <v>0.1338186429385351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -1192,19 +1192,19 @@
         <v>46425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36913</v>
+        <v>37909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56341</v>
+        <v>57521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1042855886765844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08291707515046247</v>
+        <v>0.08515612234927034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1265597187391613</v>
+        <v>0.1292102608809425</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -1213,19 +1213,19 @@
         <v>89365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77356</v>
+        <v>76436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105022</v>
+        <v>106843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1036813057169409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08974854816033154</v>
+        <v>0.0886812443000686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1218460814926576</v>
+        <v>0.1239590902805126</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>36352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27545</v>
+        <v>27732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48389</v>
+        <v>48022</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08722755714350744</v>
+        <v>0.08722755714350745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06609536296925256</v>
+        <v>0.06654433765557244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1161129235863599</v>
+        <v>0.1152308820914725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1263,19 +1263,19 @@
         <v>29067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20754</v>
+        <v>21396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38400</v>
+        <v>39125</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06529249670004168</v>
+        <v>0.06529249670004167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04661911119644669</v>
+        <v>0.04806095213061905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08625865141156296</v>
+        <v>0.08788789215278116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -1284,19 +1284,19 @@
         <v>65418</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52585</v>
+        <v>53271</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79818</v>
+        <v>78955</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07589826245048592</v>
+        <v>0.07589826245048591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0610096310834929</v>
+        <v>0.06180518356717417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09260452735811234</v>
+        <v>0.09160387698751862</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>50446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38670</v>
+        <v>38144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64152</v>
+        <v>64489</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1210484145152661</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09279159141677483</v>
+        <v>0.09152748982854379</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1539347225360458</v>
+        <v>0.1547441923448062</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>108</v>
@@ -1334,19 +1334,19 @@
         <v>62934</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52322</v>
+        <v>52219</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75174</v>
+        <v>74773</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1413692472850921</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1175309301990208</v>
+        <v>0.1173009142729062</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1688632433978426</v>
+        <v>0.1679633552632415</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -1355,19 +1355,19 @@
         <v>113380</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97138</v>
+        <v>97106</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>132466</v>
+        <v>132740</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1315439726857269</v>
+        <v>0.1315439726857268</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1127001276173633</v>
+        <v>0.11266298539921</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1536870865495809</v>
+        <v>0.1540052034034197</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>133078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114529</v>
+        <v>112191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154813</v>
+        <v>153355</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3193263040468814</v>
+        <v>0.3193263040468816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2748180762010764</v>
+        <v>0.269207615290553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3714812884153818</v>
+        <v>0.3679833215308273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -1405,19 +1405,19 @@
         <v>131168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115652</v>
+        <v>116629</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149782</v>
+        <v>148644</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2946442884827477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2597888824163683</v>
+        <v>0.2619856219975416</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3364553833950983</v>
+        <v>0.3339005585538081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>310</v>
@@ -1426,19 +1426,19 @@
         <v>264246</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>238352</v>
+        <v>238155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290373</v>
+        <v>291615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3065782275752201</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2765362183814664</v>
+        <v>0.2763076874456325</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3368910393801584</v>
+        <v>0.338331710364487</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>153930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131872</v>
+        <v>132032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175948</v>
+        <v>175002</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3693619259258466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3164321920180326</v>
+        <v>0.3168177276194444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4221950903643936</v>
+        <v>0.4199258256358656</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>245</v>
@@ -1476,19 +1476,19 @@
         <v>175581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158357</v>
+        <v>156881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192567</v>
+        <v>193244</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.394408378855534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3557194220340397</v>
+        <v>0.3524039910027981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4325657422213301</v>
+        <v>0.4340861378183332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>387</v>
@@ -1497,19 +1497,19 @@
         <v>329510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302333</v>
+        <v>300793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>357526</v>
+        <v>360383</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3822982315716262</v>
+        <v>0.3822982315716261</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3507664200017031</v>
+        <v>0.348980686125298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4148020042401453</v>
+        <v>0.4181166800925022</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>24689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17488</v>
+        <v>17692</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33759</v>
+        <v>35242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04824128320290876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03417050328126268</v>
+        <v>0.03456900424651613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0659616646278146</v>
+        <v>0.06886062434314022</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -1622,19 +1622,19 @@
         <v>32293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24798</v>
+        <v>24160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42539</v>
+        <v>41797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06501552094623426</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04992541562518175</v>
+        <v>0.04864072101897786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08564418444124798</v>
+        <v>0.08414976294786071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1643,19 +1643,19 @@
         <v>56982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45915</v>
+        <v>45766</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69233</v>
+        <v>70624</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05650288547888557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04552890658842381</v>
+        <v>0.04538044821543436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06865038770268975</v>
+        <v>0.07002998259843636</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>17743</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11743</v>
+        <v>11593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26370</v>
+        <v>26665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03466877400027539</v>
+        <v>0.0346687740002754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02294477841156504</v>
+        <v>0.02265177674318686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05152419852303999</v>
+        <v>0.05210064265027449</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1693,19 +1693,19 @@
         <v>17046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11160</v>
+        <v>11204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25194</v>
+        <v>25476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03431863374717074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02246866116651937</v>
+        <v>0.02255649572423037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05072276625558308</v>
+        <v>0.05129144261718421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -1714,19 +1714,19 @@
         <v>34789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25766</v>
+        <v>26119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46388</v>
+        <v>46346</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0344963238683395</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02554930208364264</v>
+        <v>0.02589898029496594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0459980035969329</v>
+        <v>0.04595619470587597</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>62668</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49171</v>
+        <v>49480</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78619</v>
+        <v>78212</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1224480250654812</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09607715586324928</v>
+        <v>0.09668099460496646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1536153136947848</v>
+        <v>0.1528195920955579</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1764,19 +1764,19 @@
         <v>50930</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39831</v>
+        <v>39922</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62558</v>
+        <v>63270</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1025381706208403</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08019167941878631</v>
+        <v>0.08037446134471286</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1259474979831529</v>
+        <v>0.1273818786498681</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -1785,19 +1785,19 @@
         <v>113598</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95697</v>
+        <v>96975</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132964</v>
+        <v>132487</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1126420773192319</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09489175277704549</v>
+        <v>0.09615918288877019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.131845393960153</v>
+        <v>0.1313722504870609</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>146277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125643</v>
+        <v>127181</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165747</v>
+        <v>166899</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2858144782840402</v>
+        <v>0.2858144782840401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2454976773557588</v>
+        <v>0.2485031536660407</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3238565038671578</v>
+        <v>0.3261085764159464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>213</v>
@@ -1835,19 +1835,19 @@
         <v>144229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127138</v>
+        <v>128301</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160861</v>
+        <v>162998</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2903762502567421</v>
+        <v>0.2903762502567422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.255966161365126</v>
+        <v>0.2583088098437409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.323861907772715</v>
+        <v>0.3281629085744579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>366</v>
@@ -1856,19 +1856,19 @@
         <v>290506</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>264483</v>
+        <v>263389</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>318896</v>
+        <v>318564</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.288061229897368</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2622576925784252</v>
+        <v>0.2611721493924255</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3162121524551042</v>
+        <v>0.3158828347974985</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>260413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236870</v>
+        <v>236924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283158</v>
+        <v>280624</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5088274394472946</v>
+        <v>0.5088274394472945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4628260764528947</v>
+        <v>0.4629330141179065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5532704683415792</v>
+        <v>0.5483194321514715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -1906,19 +1906,19 @@
         <v>252199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>233658</v>
+        <v>234565</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270918</v>
+        <v>271580</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5077514244290127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4704235993220282</v>
+        <v>0.4722500379511665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5454396251306781</v>
+        <v>0.5467716452682104</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>633</v>
@@ -1927,19 +1927,19 @@
         <v>512611</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>480960</v>
+        <v>481878</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543402</v>
+        <v>544294</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.508297483436175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4769124408455377</v>
+        <v>0.4778226216379069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5388293000875164</v>
+        <v>0.5397134186126151</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>9100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4881</v>
+        <v>4722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16075</v>
+        <v>15607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0182436700675391</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009786289729743795</v>
+        <v>0.009466129509467822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03222914380886931</v>
+        <v>0.03129073429395643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2052,19 +2052,19 @@
         <v>8195</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4449</v>
+        <v>4531</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14457</v>
+        <v>14530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01962014482711296</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01065167451831049</v>
+        <v>0.01084727737721218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03461060175033445</v>
+        <v>0.03478633903427149</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2073,19 +2073,19 @@
         <v>17295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11462</v>
+        <v>10755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25788</v>
+        <v>25747</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01887101910018108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01250622077208123</v>
+        <v>0.01173519451547158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02813793733246524</v>
+        <v>0.02809288472282939</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>7679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3625</v>
+        <v>3691</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13771</v>
+        <v>14021</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01539618555970122</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007267432909264456</v>
+        <v>0.007399112287724003</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02760866896139876</v>
+        <v>0.02810946828185763</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2123,19 +2123,19 @@
         <v>7875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4483</v>
+        <v>4088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14350</v>
+        <v>13229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01885240377443136</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01073343140794851</v>
+        <v>0.009786194092344595</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0343533614338486</v>
+        <v>0.03166951985344039</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2144,19 +2144,19 @@
         <v>15554</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9923</v>
+        <v>9886</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23338</v>
+        <v>24582</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01697140888910089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01082716427195469</v>
+        <v>0.01078703134949231</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02546432371925381</v>
+        <v>0.02682238178307603</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>30795</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22124</v>
+        <v>22081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42714</v>
+        <v>42668</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06173888270321761</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04435473784724765</v>
+        <v>0.044269903880226</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0856364074579451</v>
+        <v>0.08554389510713872</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2194,19 +2194,19 @@
         <v>34489</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26146</v>
+        <v>25627</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43585</v>
+        <v>44978</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08256869702939255</v>
+        <v>0.08256869702939258</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06259451109451486</v>
+        <v>0.06135299823685417</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1043429955526141</v>
+        <v>0.1076789746195096</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>97</v>
@@ -2215,19 +2215,19 @@
         <v>65284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53324</v>
+        <v>52606</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>80654</v>
+        <v>79929</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07123238323909629</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05818316595648969</v>
+        <v>0.05739955384979568</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08800279975056362</v>
+        <v>0.08721193716590113</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>176951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>154736</v>
+        <v>156494</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198207</v>
+        <v>201999</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3547635679717244</v>
+        <v>0.3547635679717243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3102242866286293</v>
+        <v>0.3137491113589834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.397378291923937</v>
+        <v>0.4049812543266969</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>262</v>
@@ -2265,19 +2265,19 @@
         <v>161832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>144782</v>
+        <v>145116</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>179449</v>
+        <v>178949</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3874321328767611</v>
+        <v>0.3874321328767612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.346612664243492</v>
+        <v>0.3474121581427043</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4296068653100724</v>
+        <v>0.4284103677792891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>453</v>
@@ -2286,19 +2286,19 @@
         <v>338784</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>310516</v>
+        <v>308014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>366973</v>
+        <v>365559</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.369652756784254</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3388091083723963</v>
+        <v>0.3360792379410838</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4004102477532587</v>
+        <v>0.3988675258223554</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>274262</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>250098</v>
+        <v>248931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296622</v>
+        <v>294487</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5498576936978178</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5014125211385967</v>
+        <v>0.4990733146556433</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5946858031187241</v>
+        <v>0.5904067541743797</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -2336,19 +2336,19 @@
         <v>205313</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>188100</v>
+        <v>187360</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>222414</v>
+        <v>222944</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.491526621492302</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4503171873466939</v>
+        <v>0.4485460198748513</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5324669951806518</v>
+        <v>0.5337352660902025</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>523</v>
@@ -2357,19 +2357,19 @@
         <v>479575</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>448727</v>
+        <v>452579</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>508921</v>
+        <v>510217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5232724319873676</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4896138006238924</v>
+        <v>0.4938165198340685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5552921359635324</v>
+        <v>0.5567066531389551</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>114086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>97439</v>
+        <v>97187</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>134455</v>
+        <v>133466</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0689564280500445</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05889444362753646</v>
+        <v>0.05874204850264918</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08126793484068438</v>
+        <v>0.08066996127927595</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>230</v>
@@ -2482,19 +2482,19 @@
         <v>131293</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>115637</v>
+        <v>115123</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>148401</v>
+        <v>147741</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08186172665583151</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07210028087174863</v>
+        <v>0.07178003829411912</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0925292292459845</v>
+        <v>0.0921171723633735</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>388</v>
@@ -2503,19 +2503,19 @@
         <v>245379</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>219456</v>
+        <v>221930</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>272005</v>
+        <v>268880</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07530880338943241</v>
+        <v>0.07530880338943242</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06735297731371899</v>
+        <v>0.06811222875328374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08348067727310148</v>
+        <v>0.08252154801732077</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>72339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>60208</v>
+        <v>57984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87487</v>
+        <v>87663</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04372365240736564</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0363914638354647</v>
+        <v>0.03504683566552561</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05287951824906426</v>
+        <v>0.05298547576783028</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>99</v>
@@ -2553,19 +2553,19 @@
         <v>66060</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53867</v>
+        <v>54268</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>80997</v>
+        <v>80736</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04118885801820601</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03358619353701258</v>
+        <v>0.03383637584653986</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05050234732693622</v>
+        <v>0.05033951194588138</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>194</v>
@@ -2574,19 +2574,19 @@
         <v>138399</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>120431</v>
+        <v>119816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>158584</v>
+        <v>159175</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04247595052459819</v>
+        <v>0.0424759505245982</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03696133276131831</v>
+        <v>0.03677262377251693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04867069595766271</v>
+        <v>0.04885220347242011</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>167057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>143732</v>
+        <v>143428</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>191760</v>
+        <v>192300</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1009733238293679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08687501844031964</v>
+        <v>0.08669159543729008</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1159044221788777</v>
+        <v>0.1162310352956171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>294</v>
@@ -2624,19 +2624,19 @@
         <v>180009</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>159239</v>
+        <v>160467</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>203104</v>
+        <v>199920</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1122366164527538</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09928661059035994</v>
+        <v>0.1000523790138196</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1266366450650097</v>
+        <v>0.1246515660333496</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>488</v>
@@ -2645,19 +2645,19 @@
         <v>347066</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>318877</v>
+        <v>315845</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>381304</v>
+        <v>380410</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.106517454537744</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09786594248272167</v>
+        <v>0.09693558350765298</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1170255503794154</v>
+        <v>0.1167510338254292</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>523457</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>482765</v>
+        <v>484227</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>563741</v>
+        <v>566461</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3163898200540465</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2917946726530222</v>
+        <v>0.292678806846665</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3407389625699785</v>
+        <v>0.3423825589781743</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>745</v>
@@ -2695,19 +2695,19 @@
         <v>498481</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>468160</v>
+        <v>467310</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>530542</v>
+        <v>531534</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3108062443760697</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.291900807192978</v>
+        <v>0.2913704426314055</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3307962585789117</v>
+        <v>0.3314146185699055</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1277</v>
@@ -2716,19 +2716,19 @@
         <v>1021938</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>968145</v>
+        <v>971887</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1069539</v>
+        <v>1074945</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3136414165086623</v>
+        <v>0.3136414165086624</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2971319800851888</v>
+        <v>0.2982802584995952</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3282505298731097</v>
+        <v>0.3299097560571411</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>777528</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>735990</v>
+        <v>732346</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>822625</v>
+        <v>819725</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4699567756591754</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4448504000851656</v>
+        <v>0.4426475958224593</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4972142304899206</v>
+        <v>0.495461391044869</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1017</v>
@@ -2766,19 +2766,19 @@
         <v>727990</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>690150</v>
+        <v>695514</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>761750</v>
+        <v>763756</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.453906554497139</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4303126387292327</v>
+        <v>0.4336576693501754</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.474955953163087</v>
+        <v>0.4762067787872731</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1732</v>
@@ -2787,19 +2787,19 @@
         <v>1505518</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1449222</v>
+        <v>1444245</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1557423</v>
+        <v>1558815</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4620563750395629</v>
+        <v>0.462056375039563</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.444778493386736</v>
+        <v>0.4432510891180467</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4779864090115492</v>
+        <v>0.4784136758220584</v>
       </c>
     </row>
     <row r="33">
